--- a/pruebas_tp/src/test/java/fromXLSXtoPDF/articulos.xlsx
+++ b/pruebas_tp/src/test/java/fromXLSXtoPDF/articulos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\educationit\bootcamp\protalento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\git\prueba_proTalento\pruebas_tp\src\test\java\fromXLSXtoPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642293CD-7DC4-481A-A1E0-A0F47B234D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665DB38-E72E-4312-9050-8743C8649018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D03053F7-C12B-4A41-BC14-9358AC790AD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D03053F7-C12B-4A41-BC14-9358AC790AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>TITULO</t>
   </si>
@@ -55,6 +56,33 @@
   </si>
   <si>
     <t>MONI000</t>
+  </si>
+  <si>
+    <t>MOU001</t>
+  </si>
+  <si>
+    <t>MOUSE 1</t>
+  </si>
+  <si>
+    <t>MOUSE 2</t>
+  </si>
+  <si>
+    <t>TECLADO A</t>
+  </si>
+  <si>
+    <t>TECL001</t>
+  </si>
+  <si>
+    <t>TECL002</t>
+  </si>
+  <si>
+    <t>TECLADO MEC B</t>
+  </si>
+  <si>
+    <t>DIADEMA 2</t>
+  </si>
+  <si>
+    <t>DIAD001</t>
   </si>
 </sst>
 </file>
@@ -408,16 +436,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A75AFB-8CD5-436A-9E55-216F276AFE21}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -455,6 +483,145 @@
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284EA0A8-D942-4A32-97AD-84CCC986B82E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/pruebas_tp/src/test/java/fromXLSXtoPDF/articulos.xlsx
+++ b/pruebas_tp/src/test/java/fromXLSXtoPDF/articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\git\prueba_proTalento\pruebas_tp\src\test\java\fromXLSXtoPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665DB38-E72E-4312-9050-8743C8649018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A911C2B-20C5-4BAE-8A31-D30FD58F9367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D03053F7-C12B-4A41-BC14-9358AC790AD0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>TITULO</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>DIAD001</t>
+  </si>
+  <si>
+    <t>MOU002</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -626,5 +629,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>